--- a/app/config/tables/panama_delivery_new/forms/panama_delivery_new/panama_delivery_new.xlsx
+++ b/app/config/tables/panama_delivery_new/forms/panama_delivery_new/panama_delivery_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -79,6 +79,9 @@
     <t>barcode</t>
   </si>
   <si>
+    <t>item_pack_barcode</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -160,15 +163,24 @@
     <t>['COMPLETE', data('authorization_id')]</t>
   </si>
   <si>
+    <t>item_pack_ranges</t>
+  </si>
+  <si>
     <t>{}</t>
   </si>
   <si>
+    <t>get_itempack</t>
+  </si>
+  <si>
     <t>entitlements</t>
   </si>
   <si>
     <t>['COMPLETE', data('entitlement_id')]</t>
   </si>
   <si>
+    <t>item_pack_name</t>
+  </si>
+  <si>
     <t>isSessionVariable</t>
   </si>
   <si>
@@ -349,6 +361,9 @@
     <t>Nombre: {{data.firstName}} &lt;br/&gt; Apellido: {{data.lastName}}</t>
   </si>
   <si>
+    <t>Tipo tarjeta: {{data.item_pack_name}}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entregue la tarjeta al beneficiario. </t>
   </si>
   <si>
@@ -361,6 +376,9 @@
     <t>Escanea el código de barras</t>
   </si>
   <si>
+    <t>¿Es correcto el código de barras? {{data.item_pack_barcode}}</t>
+  </si>
+  <si>
     <t>Código de barras incorrecto. Por favor seleccione la tarjeta que le corresponde a este beneficiario.</t>
   </si>
   <si>
@@ -383,6 +401,35 @@
   </si>
   <si>
     <t>!calculates.in_range()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   (function (entitlementRowId) {
+                            return new Promise(function (resolve, reject) {
+                                odkData.arbitraryQuery(
+                                  'panamaRegistration',
+                                  'SELECT reg.firstName, reg.lastName, ent.item_pack_name, ent.authorization_id' +
+                                  ' FROM entitlements as ent, panamaRegistration as reg, beneficiary_entities as ben' +
+                                  ' WHERE ent._id = ? AND ent.beneficiary_entity_id = ben.beneficiary_entity_id AND' +
+                                 ' ben.custom_beneficiary_entity_row_id = reg._id',
+                                  [entitlementRowId],
+                                  1,
+                                  null,
+                                  resolve,
+                                  reject
+                                );
+                            })
+                              .then(function (result) {
+                                  console.log(result);
+                                  return {
+                                      jsonMapSurvey: {
+                                          firstName: result.getData(0, 'firstName'),
+                                          lastName: result.getData(0, 'lastName'),
+                                          item_pack_name: result.getData(0, 'item_pack_name'),
+                                          authorization_id: result.getData(0, 'authorization_id')
+                                      }
+                                  };
+                              });
+                        });</t>
   </si>
   <si>
     <t>(function() {var obj = JSON.parse(data('ranges'));
@@ -405,20 +452,8 @@
 })()</t>
   </si>
   <si>
-    <t>item_barcode</t>
-  </si>
-  <si>
-    <t>item_name</t>
-  </si>
-  <si>
-    <t>Tipo tarjeta: {{data.item_name}}</t>
-  </si>
-  <si>
-    <t>item_ranges</t>
-  </si>
-  <si>
     <t>(function() {
- var rawCode = data('item_barcode');
+ var rawCode = data('item_pack_barcode');
  if (rawCode === null || rawCode === undefined) {return false;}
  var code = parseInt(rawCode);
  var json = JSON.parse(data('ranges'));
@@ -439,41 +474,6 @@
  }
  return valid;
 })()</t>
-  </si>
-  <si>
-    <t>get_item</t>
-  </si>
-  <si>
-    <t>¿Es correcto el código de barras? {{data.item_barcode}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   (function (entitlementRowId) {
-                            return new Promise(function (resolve, reject) {
-                                odkData.arbitraryQuery(
-                                  'panamaRegistration',
-                                  'SELECT reg.firstName, reg.lastName, ent.item_name, ent.authorization_id' +
-                                  ' FROM entitlements as ent, panamaRegistration as reg, beneficiary_entities as ben' +
-                                  ' WHERE ent._id = ? AND ent.beneficiary_entity_id = ben.beneficiary_entity_id AND' +
-                                 ' ben.custom_beneficiary_entity_row_id = reg._id',
-                                  [entitlementRowId],
-                                  1,
-                                  null,
-                                  resolve,
-                                  reject
-                                );
-                            })
-                              .then(function (result) {
-                                  console.log(result);
-                                  return {
-                                      jsonMapSurvey: {
-                                          firstName: result.getData(0, 'firstName'),
-                                          lastName: result.getData(0, 'lastName'),
-                                          item_name: result.getData(0, 'item_name'),
-                                          authorization_id: result.getData(0, 'authorization_id')
-                                      }
-                                  };
-                              });
-                        });</t>
   </si>
 </sst>
 </file>
@@ -638,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -702,7 +702,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ22"/>
+  <dimension ref="A1:AMJ21"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1112,7 +1111,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -1128,13 +1127,13 @@
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
@@ -1146,12 +1145,12 @@
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
       <c r="F4" s="16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -1162,12 +1161,12 @@
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="15"/>
       <c r="F5" s="16" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -1178,14 +1177,14 @@
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -1194,12 +1193,12 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
@@ -1214,48 +1213,53 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>111</v>
+      </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="K8" s="43"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="63" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="14"/>
+        <v>99</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="E9" s="15" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:12" ht="63" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>122</v>
-      </c>
+      <c r="I9" s="18"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
@@ -1263,11 +1267,9 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>97</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
@@ -1293,9 +1295,11 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="13"/>
+        <v>97</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>120</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
@@ -1305,35 +1309,33 @@
       <c r="I13" s="18"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="14"/>
+    <row r="14" spans="1:12" ht="84" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="E14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="18"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:12" ht="84" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="B15" s="13"/>
-      <c r="C15" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>107</v>
-      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="18"/>
@@ -1355,46 +1357,55 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="18"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
-        <v>14</v>
-      </c>
+    <row r="18" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="F18" s="16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
-      <c r="K18" s="13"/>
-    </row>
-    <row r="19" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="K18" s="13">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="84" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -1403,64 +1414,41 @@
         <v>1</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="84" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>108</v>
-      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
-      <c r="K20" s="13">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
+      <c r="E21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="1:12" ht="42" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="1" t="b">
+      <c r="J21" s="18"/>
+      <c r="K21" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
@@ -1475,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1486,89 +1474,89 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>40</v>
-      </c>
       <c r="I3" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1582,7 +1570,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1599,135 +1587,135 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +1729,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1753,57 +1741,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C2" s="38"/>
     </row>
     <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" s="37">
-        <v>20200331</v>
+        <v>20191209</v>
       </c>
       <c r="C3" s="38"/>
     </row>
     <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C4" s="38"/>
     </row>
     <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="38" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C6" s="38"/>
     </row>
@@ -1825,35 +1813,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1867,7 +1855,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1878,7 +1866,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -1886,18 +1874,18 @@
     </row>
     <row r="2" spans="1:2" ht="321" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="329.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1911,7 +1899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1925,87 +1913,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="391.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2023,13 +2011,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>2</v>
@@ -2037,58 +2022,58 @@
     </row>
     <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>85</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2115,27 +2100,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
